--- a/Code/Results/Cases/Case_2_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9884353844992247</v>
+        <v>1.017335002175468</v>
       </c>
       <c r="D2">
-        <v>1.009200819605153</v>
+        <v>1.023230766211161</v>
       </c>
       <c r="E2">
-        <v>1.000559055134429</v>
+        <v>1.044870710006973</v>
       </c>
       <c r="F2">
-        <v>1.002355738660272</v>
+        <v>1.048072478241247</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041185602978481</v>
+        <v>1.026990986116645</v>
       </c>
       <c r="J2">
-        <v>1.010967580242653</v>
+        <v>1.022549704457543</v>
       </c>
       <c r="K2">
-        <v>1.0205334435096</v>
+        <v>1.0260628140663</v>
       </c>
       <c r="L2">
-        <v>1.012010606921583</v>
+        <v>1.047640543773365</v>
       </c>
       <c r="M2">
-        <v>1.01378235157596</v>
+        <v>1.050833343735967</v>
       </c>
       <c r="N2">
-        <v>1.007803046794986</v>
+        <v>1.011639532581074</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9926943452656791</v>
+        <v>1.018201239408337</v>
       </c>
       <c r="D3">
-        <v>1.012345648459761</v>
+        <v>1.023866998776276</v>
       </c>
       <c r="E3">
-        <v>1.006066100965568</v>
+        <v>1.046109706768693</v>
       </c>
       <c r="F3">
-        <v>1.008177218501341</v>
+        <v>1.049377655204854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042280475780314</v>
+        <v>1.027115038244567</v>
       </c>
       <c r="J3">
-        <v>1.013386170687646</v>
+        <v>1.023052221112168</v>
       </c>
       <c r="K3">
-        <v>1.022822964281119</v>
+        <v>1.026506346915574</v>
       </c>
       <c r="L3">
-        <v>1.016621948853797</v>
+        <v>1.048689751583451</v>
       </c>
       <c r="M3">
-        <v>1.018706528632247</v>
+        <v>1.051949215731737</v>
       </c>
       <c r="N3">
-        <v>1.008597932661285</v>
+        <v>1.011804644630364</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953879353095519</v>
+        <v>1.018761421877567</v>
       </c>
       <c r="D4">
-        <v>1.014332634744316</v>
+        <v>1.024277794435924</v>
       </c>
       <c r="E4">
-        <v>1.009554587765281</v>
+        <v>1.046912097699479</v>
       </c>
       <c r="F4">
-        <v>1.011863644652682</v>
+        <v>1.050222781689925</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042955794365611</v>
+        <v>1.027193092046768</v>
       </c>
       <c r="J4">
-        <v>1.014910358514663</v>
+        <v>1.023376440166865</v>
       </c>
       <c r="K4">
-        <v>1.024261101165583</v>
+        <v>1.026791769376637</v>
       </c>
       <c r="L4">
-        <v>1.019539049005451</v>
+        <v>1.049368776464348</v>
       </c>
       <c r="M4">
-        <v>1.021820963922935</v>
+        <v>1.052671302651871</v>
       </c>
       <c r="N4">
-        <v>1.009098897375557</v>
+        <v>1.011911168796187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.996505936849385</v>
+        <v>1.018996842566925</v>
       </c>
       <c r="D5">
-        <v>1.015156816559715</v>
+        <v>1.024450278603126</v>
       </c>
       <c r="E5">
-        <v>1.011003997957279</v>
+        <v>1.047249586262514</v>
       </c>
       <c r="F5">
-        <v>1.013394996108131</v>
+        <v>1.050578215348564</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043231914342218</v>
+        <v>1.027225374511432</v>
       </c>
       <c r="J5">
-        <v>1.015541649821911</v>
+        <v>1.02351251539955</v>
       </c>
       <c r="K5">
-        <v>1.024855588276237</v>
+        <v>1.026911383344049</v>
       </c>
       <c r="L5">
-        <v>1.020750088149696</v>
+        <v>1.049654267693184</v>
       </c>
       <c r="M5">
-        <v>1.023113784123529</v>
+        <v>1.052974879336404</v>
       </c>
       <c r="N5">
-        <v>1.009306394311038</v>
+        <v>1.011955876034784</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9966928252736469</v>
+        <v>1.019036366020924</v>
       </c>
       <c r="D6">
-        <v>1.015294555808697</v>
+        <v>1.024479226844005</v>
       </c>
       <c r="E6">
-        <v>1.011246376777728</v>
+        <v>1.047306261697851</v>
       </c>
       <c r="F6">
-        <v>1.013651059984451</v>
+        <v>1.050637902617171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043277823816421</v>
+        <v>1.027230763697381</v>
       </c>
       <c r="J6">
-        <v>1.015647098811514</v>
+        <v>1.023535349728454</v>
       </c>
       <c r="K6">
-        <v>1.024954820219824</v>
+        <v>1.026931444879474</v>
       </c>
       <c r="L6">
-        <v>1.02095254791145</v>
+        <v>1.049702204669068</v>
       </c>
       <c r="M6">
-        <v>1.023329907287257</v>
+        <v>1.053025851892378</v>
       </c>
       <c r="N6">
-        <v>1.009341054316018</v>
+        <v>1.011963378140681</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9954029299544053</v>
+        <v>1.018764567895781</v>
       </c>
       <c r="D7">
-        <v>1.014343690882352</v>
+        <v>1.024280100021787</v>
       </c>
       <c r="E7">
-        <v>1.009574021228964</v>
+        <v>1.046916606594436</v>
       </c>
       <c r="F7">
-        <v>1.011884177956468</v>
+        <v>1.05022753045037</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042959514288137</v>
+        <v>1.027193525495509</v>
       </c>
       <c r="J7">
-        <v>1.014918830725508</v>
+        <v>1.023378259301566</v>
       </c>
       <c r="K7">
-        <v>1.024269084093744</v>
+        <v>1.026793369149547</v>
       </c>
       <c r="L7">
-        <v>1.019555290269553</v>
+        <v>1.049372591096138</v>
       </c>
       <c r="M7">
-        <v>1.021838302529505</v>
+        <v>1.052675359012547</v>
       </c>
       <c r="N7">
-        <v>1.009101682053176</v>
+        <v>1.011911766473577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9898879284918495</v>
+        <v>1.017627819154985</v>
       </c>
       <c r="D8">
-        <v>1.010273755702951</v>
+        <v>1.023445967286118</v>
       </c>
       <c r="E8">
-        <v>1.002436195419967</v>
+        <v>1.045289295330555</v>
       </c>
       <c r="F8">
-        <v>1.004340317029663</v>
+        <v>1.048513447588053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041562574405942</v>
+        <v>1.027033368527652</v>
       </c>
       <c r="J8">
-        <v>1.011793582891345</v>
+        <v>1.022719727087248</v>
       </c>
       <c r="K8">
-        <v>1.021316337790243</v>
+        <v>1.026213033121653</v>
       </c>
       <c r="L8">
-        <v>1.013583267707387</v>
+        <v>1.047995104842159</v>
       </c>
       <c r="M8">
-        <v>1.015461815195436</v>
+        <v>1.051210449586444</v>
       </c>
       <c r="N8">
-        <v>1.008074511129893</v>
+        <v>1.011695397908634</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9796683175537146</v>
+        <v>1.015622222177308</v>
       </c>
       <c r="D9">
-        <v>1.002719285789987</v>
+        <v>1.021969369028857</v>
       </c>
       <c r="E9">
-        <v>0.9892463504395418</v>
+        <v>1.042426893004294</v>
       </c>
       <c r="F9">
-        <v>0.9903903293918451</v>
+        <v>1.045497472347165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038840003014043</v>
+        <v>1.026734211995565</v>
       </c>
       <c r="J9">
-        <v>1.005960049748142</v>
+        <v>1.021552120459853</v>
       </c>
       <c r="K9">
-        <v>1.015768398008986</v>
+        <v>1.025178406270524</v>
       </c>
       <c r="L9">
-        <v>1.002516341358682</v>
+        <v>1.045568646984945</v>
       </c>
       <c r="M9">
-        <v>1.003641264961788</v>
+        <v>1.048629376263786</v>
       </c>
       <c r="N9">
-        <v>1.006157499423566</v>
+        <v>1.011311732390373</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9724809077249505</v>
+        <v>1.014283519766652</v>
       </c>
       <c r="D10">
-        <v>0.9974021842657079</v>
+        <v>1.020980513067133</v>
       </c>
       <c r="E10">
-        <v>0.979983893068716</v>
+        <v>1.04052198871599</v>
       </c>
       <c r="F10">
-        <v>0.9805874800273675</v>
+        <v>1.04348973455169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036838626524164</v>
+        <v>1.026523429902871</v>
       </c>
       <c r="J10">
-        <v>1.001830565245276</v>
+        <v>1.020768924242617</v>
       </c>
       <c r="K10">
-        <v>1.011818502027134</v>
+        <v>1.024480647016815</v>
       </c>
       <c r="L10">
-        <v>0.9947241999658172</v>
+        <v>1.043951508179226</v>
       </c>
       <c r="M10">
-        <v>0.9953163081326769</v>
+        <v>1.046908784899736</v>
       </c>
       <c r="N10">
-        <v>1.004800730121997</v>
+        <v>1.011054358682973</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9692707857835874</v>
+        <v>1.013703466696065</v>
       </c>
       <c r="D11">
-        <v>0.9950274827077483</v>
+        <v>1.020551286838808</v>
       </c>
       <c r="E11">
-        <v>0.975847544404719</v>
+        <v>1.039697922615277</v>
       </c>
       <c r="F11">
-        <v>0.9762082623768509</v>
+        <v>1.042621032999385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035925138439994</v>
+        <v>1.026429477233563</v>
       </c>
       <c r="J11">
-        <v>0.9999802682046105</v>
+        <v>1.020428663239589</v>
       </c>
       <c r="K11">
-        <v>1.010043786645111</v>
+        <v>1.024176622328128</v>
       </c>
       <c r="L11">
-        <v>0.9912397813748975</v>
+        <v>1.043251371274518</v>
       </c>
       <c r="M11">
-        <v>0.9915932497687345</v>
+        <v>1.046163763589344</v>
       </c>
       <c r="N11">
-        <v>1.004192878846451</v>
+        <v>1.010942537188162</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9680628446596993</v>
+        <v>1.013487951725375</v>
       </c>
       <c r="D12">
-        <v>0.994134008682213</v>
+        <v>1.020391697358036</v>
       </c>
       <c r="E12">
-        <v>0.9742908992181935</v>
+        <v>1.039391941703506</v>
       </c>
       <c r="F12">
-        <v>0.9745599869359511</v>
+        <v>1.042298456250777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035578535595884</v>
+        <v>1.026394176662674</v>
       </c>
       <c r="J12">
-        <v>0.9992831605895441</v>
+        <v>1.020302105687245</v>
       </c>
       <c r="K12">
-        <v>1.009374461384885</v>
+        <v>1.024063410927634</v>
       </c>
       <c r="L12">
-        <v>0.989927795267</v>
+        <v>1.042991322000628</v>
       </c>
       <c r="M12">
-        <v>0.9901913644620126</v>
+        <v>1.045887028966154</v>
       </c>
       <c r="N12">
-        <v>1.003963880857591</v>
+        <v>1.010900945277603</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9683226705330719</v>
+        <v>1.013534183008054</v>
       </c>
       <c r="D13">
-        <v>0.9943261869575276</v>
+        <v>1.020425936871245</v>
       </c>
       <c r="E13">
-        <v>0.9746257428447682</v>
+        <v>1.039457570520446</v>
       </c>
       <c r="F13">
-        <v>0.9749145511650466</v>
+        <v>1.042367645666682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035653217320599</v>
+        <v>1.02640176695225</v>
       </c>
       <c r="J13">
-        <v>0.999433145259591</v>
+        <v>1.020329260371215</v>
       </c>
       <c r="K13">
-        <v>1.009518499252213</v>
+        <v>1.024087707953564</v>
       </c>
       <c r="L13">
-        <v>0.9902100418560345</v>
+        <v>1.043047102900053</v>
       </c>
       <c r="M13">
-        <v>0.9904929527845331</v>
+        <v>1.045946389529862</v>
       </c>
       <c r="N13">
-        <v>1.004013149827976</v>
+        <v>1.010909869433799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9691712595223934</v>
+        <v>1.013685653329702</v>
       </c>
       <c r="D14">
-        <v>0.994953863731658</v>
+        <v>1.020538098292522</v>
       </c>
       <c r="E14">
-        <v>0.9757192923314432</v>
+        <v>1.0396726278237</v>
       </c>
       <c r="F14">
-        <v>0.9760724655580012</v>
+        <v>1.042594366722326</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035896638423826</v>
+        <v>1.02642656748168</v>
       </c>
       <c r="J14">
-        <v>0.9999228484058235</v>
+        <v>1.020418205406532</v>
       </c>
       <c r="K14">
-        <v>1.009988669084041</v>
+        <v>1.024167270008299</v>
       </c>
       <c r="L14">
-        <v>0.9911317005586132</v>
+        <v>1.043229875269116</v>
       </c>
       <c r="M14">
-        <v>0.9914777639205822</v>
+        <v>1.04614088863842</v>
       </c>
       <c r="N14">
-        <v>1.00417401633121</v>
+        <v>1.010939100337791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9696920150483649</v>
+        <v>1.013778971600515</v>
       </c>
       <c r="D15">
-        <v>0.9953390683270658</v>
+        <v>1.020607184045274</v>
       </c>
       <c r="E15">
-        <v>0.9763903425297321</v>
+        <v>1.039805146770198</v>
       </c>
       <c r="F15">
-        <v>0.9767829825603401</v>
+        <v>1.042734069938168</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036045644041679</v>
+        <v>1.026441794608778</v>
       </c>
       <c r="J15">
-        <v>1.000223253787767</v>
+        <v>1.02047298493984</v>
       </c>
       <c r="K15">
-        <v>1.010277001770711</v>
+        <v>1.0242162533302</v>
       </c>
       <c r="L15">
-        <v>0.9916971814342193</v>
+        <v>1.043342489001847</v>
       </c>
       <c r="M15">
-        <v>0.9920819863370059</v>
+        <v>1.046260725843893</v>
       </c>
       <c r="N15">
-        <v>1.004272700605339</v>
+        <v>1.010957102991337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9726918189904391</v>
+        <v>1.014322007893144</v>
       </c>
       <c r="D16">
-        <v>0.9975582162684422</v>
+        <v>1.021008977487912</v>
       </c>
       <c r="E16">
-        <v>0.9802556496448557</v>
+        <v>1.040576695342614</v>
       </c>
       <c r="F16">
-        <v>0.9808751609813046</v>
+        <v>1.043547401210495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036898243172169</v>
+        <v>1.026529608769462</v>
       </c>
       <c r="J16">
-        <v>1.001952012741907</v>
+        <v>1.020791482447698</v>
       </c>
       <c r="K16">
-        <v>1.011934890432848</v>
+        <v>1.024500784384741</v>
       </c>
       <c r="L16">
-        <v>0.9949530292589298</v>
+        <v>1.043997975829923</v>
       </c>
       <c r="M16">
-        <v>0.995560802568948</v>
+        <v>1.046958229515023</v>
       </c>
       <c r="N16">
-        <v>1.004840629193007</v>
+        <v>1.011061771982632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9745467219485281</v>
+        <v>1.014662537251999</v>
       </c>
       <c r="D17">
-        <v>0.9989304924472308</v>
+        <v>1.021260732999989</v>
       </c>
       <c r="E17">
-        <v>0.9826457035529486</v>
+        <v>1.04106087229559</v>
       </c>
       <c r="F17">
-        <v>0.9834050917079393</v>
+        <v>1.044057758442936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037420335135581</v>
+        <v>1.026583974531194</v>
       </c>
       <c r="J17">
-        <v>1.00301943720286</v>
+        <v>1.020990964901791</v>
       </c>
       <c r="K17">
-        <v>1.012957300027302</v>
+        <v>1.024678757747788</v>
       </c>
       <c r="L17">
-        <v>0.9969650160119085</v>
+        <v>1.044409169735575</v>
       </c>
       <c r="M17">
-        <v>0.997710483736901</v>
+        <v>1.047395755749434</v>
       </c>
       <c r="N17">
-        <v>1.005191318265046</v>
+        <v>1.011127327295363</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9756192676042876</v>
+        <v>1.014861124975497</v>
       </c>
       <c r="D18">
-        <v>0.9997239741561357</v>
+        <v>1.021407476812859</v>
       </c>
       <c r="E18">
-        <v>0.9840277556520263</v>
+        <v>1.04134335893502</v>
       </c>
       <c r="F18">
-        <v>0.9848678813015688</v>
+        <v>1.044355505191653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037720357304383</v>
+        <v>1.026615426280833</v>
       </c>
       <c r="J18">
-        <v>1.003636080493499</v>
+        <v>1.021107210394284</v>
       </c>
       <c r="K18">
-        <v>1.013547473867215</v>
+        <v>1.024782384150236</v>
       </c>
       <c r="L18">
-        <v>0.9981280065603371</v>
+        <v>1.044649021438558</v>
       </c>
       <c r="M18">
-        <v>0.9989530290461831</v>
+        <v>1.0476509580862</v>
       </c>
       <c r="N18">
-        <v>1.005393915873255</v>
+        <v>1.011165528213156</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759834102502003</v>
+        <v>1.014928831914613</v>
       </c>
       <c r="D19">
-        <v>0.9999933686463701</v>
+        <v>1.021457495504778</v>
       </c>
       <c r="E19">
-        <v>0.984496998825046</v>
+        <v>1.041439692254396</v>
       </c>
       <c r="F19">
-        <v>0.9853645120928933</v>
+        <v>1.044457040050228</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037821900204925</v>
+        <v>1.026626106583734</v>
       </c>
       <c r="J19">
-        <v>1.003845341705635</v>
+        <v>1.021146828554858</v>
       </c>
       <c r="K19">
-        <v>1.013747672513037</v>
+        <v>1.024817687101217</v>
       </c>
       <c r="L19">
-        <v>0.9985227967856769</v>
+        <v>1.044730806286534</v>
       </c>
       <c r="M19">
-        <v>0.9993748184084073</v>
+        <v>1.047737975648664</v>
       </c>
       <c r="N19">
-        <v>1.005462669627146</v>
+        <v>1.011178547560658</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9743486853536534</v>
+        <v>1.014626005527375</v>
       </c>
       <c r="D20">
-        <v>0.9987839821474083</v>
+        <v>1.021233732445336</v>
       </c>
       <c r="E20">
-        <v>0.9823905266247805</v>
+        <v>1.041008917006163</v>
       </c>
       <c r="F20">
-        <v>0.9831349958563289</v>
+        <v>1.044002995333756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037364787348886</v>
+        <v>1.026578168371686</v>
       </c>
       <c r="J20">
-        <v>1.002905533235392</v>
+        <v>1.020969573618062</v>
       </c>
       <c r="K20">
-        <v>1.012848247517225</v>
+        <v>1.024659681755186</v>
       </c>
       <c r="L20">
-        <v>0.9967502497923421</v>
+        <v>1.044365051574409</v>
       </c>
       <c r="M20">
-        <v>0.9974810232916244</v>
+        <v>1.047348813264433</v>
       </c>
       <c r="N20">
-        <v>1.005153895782771</v>
+        <v>1.011120297592858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9689218078526038</v>
+        <v>1.013641050676164</v>
       </c>
       <c r="D21">
-        <v>0.99476934785948</v>
+        <v>1.020505073838866</v>
       </c>
       <c r="E21">
-        <v>0.9753978388642657</v>
+        <v>1.039609295677165</v>
       </c>
       <c r="F21">
-        <v>0.9757320980873196</v>
+        <v>1.042527600340107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035825160395543</v>
+        <v>1.026419275445858</v>
       </c>
       <c r="J21">
-        <v>0.999778918294816</v>
+        <v>1.020392017983957</v>
       </c>
       <c r="K21">
-        <v>1.009850498806048</v>
+        <v>1.024143848773796</v>
       </c>
       <c r="L21">
-        <v>0.9908607937709466</v>
+        <v>1.04317605302216</v>
       </c>
       <c r="M21">
-        <v>0.9911882956001352</v>
+        <v>1.046083613525205</v>
       </c>
       <c r="N21">
-        <v>1.004126735219037</v>
+        <v>1.010930494121171</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9654192262742319</v>
+        <v>1.013021438453592</v>
       </c>
       <c r="D22">
-        <v>0.9921789127695865</v>
+        <v>1.020046036754221</v>
       </c>
       <c r="E22">
-        <v>0.9708835095832243</v>
+        <v>1.038729956487271</v>
       </c>
       <c r="F22">
-        <v>0.9709516024437382</v>
+        <v>1.041600525245098</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034814803999719</v>
+        <v>1.026317045513504</v>
       </c>
       <c r="J22">
-        <v>0.9977559812865773</v>
+        <v>1.020027905640231</v>
       </c>
       <c r="K22">
-        <v>1.007906915600284</v>
+        <v>1.023817886646528</v>
       </c>
       <c r="L22">
-        <v>0.9870547106464189</v>
+        <v>1.04242855543974</v>
       </c>
       <c r="M22">
-        <v>0.9871213452865246</v>
+        <v>1.045288128408859</v>
       </c>
       <c r="N22">
-        <v>1.003462231282759</v>
+        <v>1.010810830768065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9672848888256046</v>
+        <v>1.013349937898562</v>
       </c>
       <c r="D23">
-        <v>0.9935586223188078</v>
+        <v>1.020289465937784</v>
       </c>
       <c r="E23">
-        <v>0.9732882831899522</v>
+        <v>1.039196049018627</v>
       </c>
       <c r="F23">
-        <v>0.9734982882057591</v>
+        <v>1.042091932405339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035354514293445</v>
+        <v>1.026371459947983</v>
       </c>
       <c r="J23">
-        <v>0.9988339622302634</v>
+        <v>1.020221021200999</v>
       </c>
       <c r="K23">
-        <v>1.00894297505109</v>
+        <v>1.023990840250929</v>
       </c>
       <c r="L23">
-        <v>0.9890825708275438</v>
+        <v>1.042824811635418</v>
       </c>
       <c r="M23">
-        <v>0.989288213205469</v>
+        <v>1.045709830968701</v>
       </c>
       <c r="N23">
-        <v>1.003816324128582</v>
+        <v>1.010874297443649</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9744381985157534</v>
+        <v>1.014642512756412</v>
       </c>
       <c r="D24">
-        <v>0.9988502052649979</v>
+        <v>1.021245933145648</v>
       </c>
       <c r="E24">
-        <v>0.9825058671592775</v>
+        <v>1.041032393134648</v>
       </c>
       <c r="F24">
-        <v>0.9832570802315602</v>
+        <v>1.044027740227249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037389900906843</v>
+        <v>1.026580792725164</v>
       </c>
       <c r="J24">
-        <v>1.002957019941092</v>
+        <v>1.020979239755943</v>
       </c>
       <c r="K24">
-        <v>1.01289754271916</v>
+        <v>1.024668301938886</v>
       </c>
       <c r="L24">
-        <v>0.9968473259748245</v>
+        <v>1.044384986643367</v>
       </c>
       <c r="M24">
-        <v>0.9975847415061168</v>
+        <v>1.047370024550225</v>
       </c>
       <c r="N24">
-        <v>1.005170811416841</v>
+        <v>1.011123474125256</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9823734224091073</v>
+        <v>1.016141008876762</v>
       </c>
       <c r="D25">
-        <v>1.004719966153936</v>
+        <v>1.022351896542661</v>
       </c>
       <c r="E25">
-        <v>0.9927344361383696</v>
+        <v>1.043166293554335</v>
       </c>
       <c r="F25">
-        <v>0.9940805754916607</v>
+        <v>1.046276654696619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039575848400712</v>
+        <v>1.026813553893807</v>
       </c>
       <c r="J25">
-        <v>1.007508909079493</v>
+        <v>1.021854822346624</v>
       </c>
       <c r="K25">
-        <v>1.017245449948307</v>
+        <v>1.025447297955395</v>
       </c>
       <c r="L25">
-        <v>1.005446597525513</v>
+        <v>1.046195851211313</v>
       </c>
       <c r="M25">
-        <v>1.006771483222091</v>
+        <v>1.049296618785497</v>
       </c>
       <c r="N25">
-        <v>1.00666644475857</v>
+        <v>1.011411201603874</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017335002175468</v>
+        <v>0.9884353844992254</v>
       </c>
       <c r="D2">
-        <v>1.023230766211161</v>
+        <v>1.009200819605153</v>
       </c>
       <c r="E2">
-        <v>1.044870710006973</v>
+        <v>1.000559055134429</v>
       </c>
       <c r="F2">
-        <v>1.048072478241247</v>
+        <v>1.002355738660272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026990986116645</v>
+        <v>1.041185602978481</v>
       </c>
       <c r="J2">
-        <v>1.022549704457543</v>
+        <v>1.010967580242654</v>
       </c>
       <c r="K2">
-        <v>1.0260628140663</v>
+        <v>1.0205334435096</v>
       </c>
       <c r="L2">
-        <v>1.047640543773365</v>
+        <v>1.012010606921583</v>
       </c>
       <c r="M2">
-        <v>1.050833343735967</v>
+        <v>1.01378235157596</v>
       </c>
       <c r="N2">
-        <v>1.011639532581074</v>
+        <v>1.007803046794986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018201239408337</v>
+        <v>0.9926943452656797</v>
       </c>
       <c r="D3">
-        <v>1.023866998776276</v>
+        <v>1.012345648459761</v>
       </c>
       <c r="E3">
-        <v>1.046109706768693</v>
+        <v>1.006066100965568</v>
       </c>
       <c r="F3">
-        <v>1.049377655204854</v>
+        <v>1.008177218501342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027115038244567</v>
+        <v>1.042280475780314</v>
       </c>
       <c r="J3">
-        <v>1.023052221112168</v>
+        <v>1.013386170687646</v>
       </c>
       <c r="K3">
-        <v>1.026506346915574</v>
+        <v>1.02282296428112</v>
       </c>
       <c r="L3">
-        <v>1.048689751583451</v>
+        <v>1.016621948853797</v>
       </c>
       <c r="M3">
-        <v>1.051949215731737</v>
+        <v>1.018706528632248</v>
       </c>
       <c r="N3">
-        <v>1.011804644630364</v>
+        <v>1.008597932661285</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018761421877567</v>
+        <v>0.9953879353095516</v>
       </c>
       <c r="D4">
-        <v>1.024277794435924</v>
+        <v>1.014332634744316</v>
       </c>
       <c r="E4">
-        <v>1.046912097699479</v>
+        <v>1.009554587765281</v>
       </c>
       <c r="F4">
-        <v>1.050222781689925</v>
+        <v>1.011863644652682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027193092046768</v>
+        <v>1.042955794365611</v>
       </c>
       <c r="J4">
-        <v>1.023376440166865</v>
+        <v>1.014910358514663</v>
       </c>
       <c r="K4">
-        <v>1.026791769376637</v>
+        <v>1.024261101165583</v>
       </c>
       <c r="L4">
-        <v>1.049368776464348</v>
+        <v>1.019539049005451</v>
       </c>
       <c r="M4">
-        <v>1.052671302651871</v>
+        <v>1.021820963922934</v>
       </c>
       <c r="N4">
-        <v>1.011911168796187</v>
+        <v>1.009098897375556</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018996842566925</v>
+        <v>0.9965059368493848</v>
       </c>
       <c r="D5">
-        <v>1.024450278603126</v>
+        <v>1.015156816559715</v>
       </c>
       <c r="E5">
-        <v>1.047249586262514</v>
+        <v>1.011003997957279</v>
       </c>
       <c r="F5">
-        <v>1.050578215348564</v>
+        <v>1.013394996108132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027225374511432</v>
+        <v>1.043231914342218</v>
       </c>
       <c r="J5">
-        <v>1.02351251539955</v>
+        <v>1.01554164982191</v>
       </c>
       <c r="K5">
-        <v>1.026911383344049</v>
+        <v>1.024855588276237</v>
       </c>
       <c r="L5">
-        <v>1.049654267693184</v>
+        <v>1.020750088149696</v>
       </c>
       <c r="M5">
-        <v>1.052974879336404</v>
+        <v>1.023113784123529</v>
       </c>
       <c r="N5">
-        <v>1.011955876034784</v>
+        <v>1.009306394311038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019036366020924</v>
+        <v>0.9966928252736472</v>
       </c>
       <c r="D6">
-        <v>1.024479226844005</v>
+        <v>1.015294555808697</v>
       </c>
       <c r="E6">
-        <v>1.047306261697851</v>
+        <v>1.011246376777728</v>
       </c>
       <c r="F6">
-        <v>1.050637902617171</v>
+        <v>1.013651059984451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027230763697381</v>
+        <v>1.043277823816422</v>
       </c>
       <c r="J6">
-        <v>1.023535349728454</v>
+        <v>1.015647098811515</v>
       </c>
       <c r="K6">
-        <v>1.026931444879474</v>
+        <v>1.024954820219824</v>
       </c>
       <c r="L6">
-        <v>1.049702204669068</v>
+        <v>1.02095254791145</v>
       </c>
       <c r="M6">
-        <v>1.053025851892378</v>
+        <v>1.023329907287257</v>
       </c>
       <c r="N6">
-        <v>1.011963378140681</v>
+        <v>1.009341054316018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018764567895781</v>
+        <v>0.9954029299544054</v>
       </c>
       <c r="D7">
-        <v>1.024280100021787</v>
+        <v>1.014343690882352</v>
       </c>
       <c r="E7">
-        <v>1.046916606594436</v>
+        <v>1.009574021228964</v>
       </c>
       <c r="F7">
-        <v>1.05022753045037</v>
+        <v>1.011884177956468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027193525495509</v>
+        <v>1.042959514288137</v>
       </c>
       <c r="J7">
-        <v>1.023378259301566</v>
+        <v>1.014918830725508</v>
       </c>
       <c r="K7">
-        <v>1.026793369149547</v>
+        <v>1.024269084093744</v>
       </c>
       <c r="L7">
-        <v>1.049372591096138</v>
+        <v>1.019555290269553</v>
       </c>
       <c r="M7">
-        <v>1.052675359012547</v>
+        <v>1.021838302529505</v>
       </c>
       <c r="N7">
-        <v>1.011911766473577</v>
+        <v>1.009101682053176</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017627819154985</v>
+        <v>0.9898879284918494</v>
       </c>
       <c r="D8">
-        <v>1.023445967286118</v>
+        <v>1.010273755702951</v>
       </c>
       <c r="E8">
-        <v>1.045289295330555</v>
+        <v>1.002436195419967</v>
       </c>
       <c r="F8">
-        <v>1.048513447588053</v>
+        <v>1.004340317029663</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027033368527652</v>
+        <v>1.041562574405942</v>
       </c>
       <c r="J8">
-        <v>1.022719727087248</v>
+        <v>1.011793582891345</v>
       </c>
       <c r="K8">
-        <v>1.026213033121653</v>
+        <v>1.021316337790243</v>
       </c>
       <c r="L8">
-        <v>1.047995104842159</v>
+        <v>1.013583267707387</v>
       </c>
       <c r="M8">
-        <v>1.051210449586444</v>
+        <v>1.015461815195435</v>
       </c>
       <c r="N8">
-        <v>1.011695397908634</v>
+        <v>1.008074511129893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015622222177308</v>
+        <v>0.979668317553714</v>
       </c>
       <c r="D9">
-        <v>1.021969369028857</v>
+        <v>1.002719285789987</v>
       </c>
       <c r="E9">
-        <v>1.042426893004294</v>
+        <v>0.9892463504395417</v>
       </c>
       <c r="F9">
-        <v>1.045497472347165</v>
+        <v>0.990390329391845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026734211995565</v>
+        <v>1.038840003014042</v>
       </c>
       <c r="J9">
-        <v>1.021552120459853</v>
+        <v>1.005960049748141</v>
       </c>
       <c r="K9">
-        <v>1.025178406270524</v>
+        <v>1.015768398008985</v>
       </c>
       <c r="L9">
-        <v>1.045568646984945</v>
+        <v>1.002516341358682</v>
       </c>
       <c r="M9">
-        <v>1.048629376263786</v>
+        <v>1.003641264961788</v>
       </c>
       <c r="N9">
-        <v>1.011311732390373</v>
+        <v>1.006157499423566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014283519766652</v>
+        <v>0.9724809077249502</v>
       </c>
       <c r="D10">
-        <v>1.020980513067133</v>
+        <v>0.9974021842657076</v>
       </c>
       <c r="E10">
-        <v>1.04052198871599</v>
+        <v>0.9799838930687171</v>
       </c>
       <c r="F10">
-        <v>1.04348973455169</v>
+        <v>0.9805874800273683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026523429902871</v>
+        <v>1.036838626524164</v>
       </c>
       <c r="J10">
-        <v>1.020768924242617</v>
+        <v>1.001830565245276</v>
       </c>
       <c r="K10">
-        <v>1.024480647016815</v>
+        <v>1.011818502027133</v>
       </c>
       <c r="L10">
-        <v>1.043951508179226</v>
+        <v>0.9947241999658182</v>
       </c>
       <c r="M10">
-        <v>1.046908784899736</v>
+        <v>0.9953163081326776</v>
       </c>
       <c r="N10">
-        <v>1.011054358682973</v>
+        <v>1.004800730121997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013703466696065</v>
+        <v>0.9692707857835867</v>
       </c>
       <c r="D11">
-        <v>1.020551286838808</v>
+        <v>0.9950274827077474</v>
       </c>
       <c r="E11">
-        <v>1.039697922615277</v>
+        <v>0.9758475444047185</v>
       </c>
       <c r="F11">
-        <v>1.042621032999385</v>
+        <v>0.9762082623768504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026429477233563</v>
+        <v>1.035925138439994</v>
       </c>
       <c r="J11">
-        <v>1.020428663239589</v>
+        <v>0.9999802682046099</v>
       </c>
       <c r="K11">
-        <v>1.024176622328128</v>
+        <v>1.01004378664511</v>
       </c>
       <c r="L11">
-        <v>1.043251371274518</v>
+        <v>0.9912397813748972</v>
       </c>
       <c r="M11">
-        <v>1.046163763589344</v>
+        <v>0.9915932497687342</v>
       </c>
       <c r="N11">
-        <v>1.010942537188162</v>
+        <v>1.004192878846451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013487951725375</v>
+        <v>0.9680628446596992</v>
       </c>
       <c r="D12">
-        <v>1.020391697358036</v>
+        <v>0.994134008682213</v>
       </c>
       <c r="E12">
-        <v>1.039391941703506</v>
+        <v>0.9742908992181937</v>
       </c>
       <c r="F12">
-        <v>1.042298456250777</v>
+        <v>0.9745599869359515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026394176662674</v>
+        <v>1.035578535595884</v>
       </c>
       <c r="J12">
-        <v>1.020302105687245</v>
+        <v>0.999283160589544</v>
       </c>
       <c r="K12">
-        <v>1.024063410927634</v>
+        <v>1.009374461384885</v>
       </c>
       <c r="L12">
-        <v>1.042991322000628</v>
+        <v>0.9899277952670005</v>
       </c>
       <c r="M12">
-        <v>1.045887028966154</v>
+        <v>0.9901913644620128</v>
       </c>
       <c r="N12">
-        <v>1.010900945277603</v>
+        <v>1.003963880857591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013534183008054</v>
+        <v>0.9683226705330721</v>
       </c>
       <c r="D13">
-        <v>1.020425936871245</v>
+        <v>0.9943261869575278</v>
       </c>
       <c r="E13">
-        <v>1.039457570520446</v>
+        <v>0.9746257428447689</v>
       </c>
       <c r="F13">
-        <v>1.042367645666682</v>
+        <v>0.9749145511650475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02640176695225</v>
+        <v>1.035653217320599</v>
       </c>
       <c r="J13">
-        <v>1.020329260371215</v>
+        <v>0.9994331452595914</v>
       </c>
       <c r="K13">
-        <v>1.024087707953564</v>
+        <v>1.009518499252213</v>
       </c>
       <c r="L13">
-        <v>1.043047102900053</v>
+        <v>0.9902100418560351</v>
       </c>
       <c r="M13">
-        <v>1.045946389529862</v>
+        <v>0.990492952784534</v>
       </c>
       <c r="N13">
-        <v>1.010909869433799</v>
+        <v>1.004013149827976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013685653329702</v>
+        <v>0.9691712595223935</v>
       </c>
       <c r="D14">
-        <v>1.020538098292522</v>
+        <v>0.994953863731658</v>
       </c>
       <c r="E14">
-        <v>1.0396726278237</v>
+        <v>0.9757192923314431</v>
       </c>
       <c r="F14">
-        <v>1.042594366722326</v>
+        <v>0.9760724655580012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02642656748168</v>
+        <v>1.035896638423826</v>
       </c>
       <c r="J14">
-        <v>1.020418205406532</v>
+        <v>0.9999228484058235</v>
       </c>
       <c r="K14">
-        <v>1.024167270008299</v>
+        <v>1.009988669084041</v>
       </c>
       <c r="L14">
-        <v>1.043229875269116</v>
+        <v>0.9911317005586131</v>
       </c>
       <c r="M14">
-        <v>1.04614088863842</v>
+        <v>0.9914777639205821</v>
       </c>
       <c r="N14">
-        <v>1.010939100337791</v>
+        <v>1.00417401633121</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013778971600515</v>
+        <v>0.9696920150483649</v>
       </c>
       <c r="D15">
-        <v>1.020607184045274</v>
+        <v>0.9953390683270659</v>
       </c>
       <c r="E15">
-        <v>1.039805146770198</v>
+        <v>0.976390342529732</v>
       </c>
       <c r="F15">
-        <v>1.042734069938168</v>
+        <v>0.9767829825603405</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026441794608778</v>
+        <v>1.036045644041679</v>
       </c>
       <c r="J15">
-        <v>1.02047298493984</v>
+        <v>1.000223253787767</v>
       </c>
       <c r="K15">
-        <v>1.0242162533302</v>
+        <v>1.010277001770711</v>
       </c>
       <c r="L15">
-        <v>1.043342489001847</v>
+        <v>0.9916971814342193</v>
       </c>
       <c r="M15">
-        <v>1.046260725843893</v>
+        <v>0.9920819863370061</v>
       </c>
       <c r="N15">
-        <v>1.010957102991337</v>
+        <v>1.004272700605339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014322007893144</v>
+        <v>0.972691818990439</v>
       </c>
       <c r="D16">
-        <v>1.021008977487912</v>
+        <v>0.9975582162684422</v>
       </c>
       <c r="E16">
-        <v>1.040576695342614</v>
+        <v>0.9802556496448559</v>
       </c>
       <c r="F16">
-        <v>1.043547401210495</v>
+        <v>0.9808751609813041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026529608769462</v>
+        <v>1.036898243172169</v>
       </c>
       <c r="J16">
-        <v>1.020791482447698</v>
+        <v>1.001952012741907</v>
       </c>
       <c r="K16">
-        <v>1.024500784384741</v>
+        <v>1.011934890432848</v>
       </c>
       <c r="L16">
-        <v>1.043997975829923</v>
+        <v>0.9949530292589298</v>
       </c>
       <c r="M16">
-        <v>1.046958229515023</v>
+        <v>0.9955608025689479</v>
       </c>
       <c r="N16">
-        <v>1.011061771982632</v>
+        <v>1.004840629193007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014662537251999</v>
+        <v>0.9745467219485282</v>
       </c>
       <c r="D17">
-        <v>1.021260732999989</v>
+        <v>0.9989304924472309</v>
       </c>
       <c r="E17">
-        <v>1.04106087229559</v>
+        <v>0.9826457035529486</v>
       </c>
       <c r="F17">
-        <v>1.044057758442936</v>
+        <v>0.9834050917079393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026583974531194</v>
+        <v>1.037420335135581</v>
       </c>
       <c r="J17">
-        <v>1.020990964901791</v>
+        <v>1.003019437202861</v>
       </c>
       <c r="K17">
-        <v>1.024678757747788</v>
+        <v>1.012957300027302</v>
       </c>
       <c r="L17">
-        <v>1.044409169735575</v>
+        <v>0.9969650160119085</v>
       </c>
       <c r="M17">
-        <v>1.047395755749434</v>
+        <v>0.997710483736901</v>
       </c>
       <c r="N17">
-        <v>1.011127327295363</v>
+        <v>1.005191318265046</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014861124975497</v>
+        <v>0.9756192676042874</v>
       </c>
       <c r="D18">
-        <v>1.021407476812859</v>
+        <v>0.999723974156135</v>
       </c>
       <c r="E18">
-        <v>1.04134335893502</v>
+        <v>0.9840277556520268</v>
       </c>
       <c r="F18">
-        <v>1.044355505191653</v>
+        <v>0.9848678813015694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026615426280833</v>
+        <v>1.037720357304382</v>
       </c>
       <c r="J18">
-        <v>1.021107210394284</v>
+        <v>1.003636080493499</v>
       </c>
       <c r="K18">
-        <v>1.024782384150236</v>
+        <v>1.013547473867215</v>
       </c>
       <c r="L18">
-        <v>1.044649021438558</v>
+        <v>0.9981280065603377</v>
       </c>
       <c r="M18">
-        <v>1.0476509580862</v>
+        <v>0.9989530290461837</v>
       </c>
       <c r="N18">
-        <v>1.011165528213156</v>
+        <v>1.005393915873255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014928831914613</v>
+        <v>0.9759834102502</v>
       </c>
       <c r="D19">
-        <v>1.021457495504778</v>
+        <v>0.9999933686463698</v>
       </c>
       <c r="E19">
-        <v>1.041439692254396</v>
+        <v>0.9844969988250459</v>
       </c>
       <c r="F19">
-        <v>1.044457040050228</v>
+        <v>0.9853645120928932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026626106583734</v>
+        <v>1.037821900204925</v>
       </c>
       <c r="J19">
-        <v>1.021146828554858</v>
+        <v>1.003845341705635</v>
       </c>
       <c r="K19">
-        <v>1.024817687101217</v>
+        <v>1.013747672513036</v>
       </c>
       <c r="L19">
-        <v>1.044730806286534</v>
+        <v>0.9985227967856768</v>
       </c>
       <c r="M19">
-        <v>1.047737975648664</v>
+        <v>0.999374818408407</v>
       </c>
       <c r="N19">
-        <v>1.011178547560658</v>
+        <v>1.005462669627146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014626005527375</v>
+        <v>0.9743486853536529</v>
       </c>
       <c r="D20">
-        <v>1.021233732445336</v>
+        <v>0.9987839821474077</v>
       </c>
       <c r="E20">
-        <v>1.041008917006163</v>
+        <v>0.9823905266247803</v>
       </c>
       <c r="F20">
-        <v>1.044002995333756</v>
+        <v>0.9831349958563281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026578168371686</v>
+        <v>1.037364787348886</v>
       </c>
       <c r="J20">
-        <v>1.020969573618062</v>
+        <v>1.002905533235392</v>
       </c>
       <c r="K20">
-        <v>1.024659681755186</v>
+        <v>1.012848247517224</v>
       </c>
       <c r="L20">
-        <v>1.044365051574409</v>
+        <v>0.9967502497923417</v>
       </c>
       <c r="M20">
-        <v>1.047348813264433</v>
+        <v>0.9974810232916237</v>
       </c>
       <c r="N20">
-        <v>1.011120297592858</v>
+        <v>1.005153895782771</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013641050676164</v>
+        <v>0.9689218078526044</v>
       </c>
       <c r="D21">
-        <v>1.020505073838866</v>
+        <v>0.9947693478594803</v>
       </c>
       <c r="E21">
-        <v>1.039609295677165</v>
+        <v>0.9753978388642662</v>
       </c>
       <c r="F21">
-        <v>1.042527600340107</v>
+        <v>0.9757320980873204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026419275445858</v>
+        <v>1.035825160395544</v>
       </c>
       <c r="J21">
-        <v>1.020392017983957</v>
+        <v>0.9997789182948164</v>
       </c>
       <c r="K21">
-        <v>1.024143848773796</v>
+        <v>1.009850498806048</v>
       </c>
       <c r="L21">
-        <v>1.04317605302216</v>
+        <v>0.9908607937709474</v>
       </c>
       <c r="M21">
-        <v>1.046083613525205</v>
+        <v>0.991188295600136</v>
       </c>
       <c r="N21">
-        <v>1.010930494121171</v>
+        <v>1.004126735219037</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013021438453592</v>
+        <v>0.9654192262742318</v>
       </c>
       <c r="D22">
-        <v>1.020046036754221</v>
+        <v>0.9921789127695866</v>
       </c>
       <c r="E22">
-        <v>1.038729956487271</v>
+        <v>0.9708835095832251</v>
       </c>
       <c r="F22">
-        <v>1.041600525245098</v>
+        <v>0.9709516024437391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026317045513504</v>
+        <v>1.034814803999719</v>
       </c>
       <c r="J22">
-        <v>1.020027905640231</v>
+        <v>0.9977559812865772</v>
       </c>
       <c r="K22">
-        <v>1.023817886646528</v>
+        <v>1.007906915600284</v>
       </c>
       <c r="L22">
-        <v>1.04242855543974</v>
+        <v>0.9870547106464197</v>
       </c>
       <c r="M22">
-        <v>1.045288128408859</v>
+        <v>0.9871213452865253</v>
       </c>
       <c r="N22">
-        <v>1.010810830768065</v>
+        <v>1.003462231282759</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013349937898562</v>
+        <v>0.9672848888256048</v>
       </c>
       <c r="D23">
-        <v>1.020289465937784</v>
+        <v>0.993558622318808</v>
       </c>
       <c r="E23">
-        <v>1.039196049018627</v>
+        <v>0.9732882831899528</v>
       </c>
       <c r="F23">
-        <v>1.042091932405339</v>
+        <v>0.9734982882057599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026371459947983</v>
+        <v>1.035354514293444</v>
       </c>
       <c r="J23">
-        <v>1.020221021200999</v>
+        <v>0.9988339622302638</v>
       </c>
       <c r="K23">
-        <v>1.023990840250929</v>
+        <v>1.00894297505109</v>
       </c>
       <c r="L23">
-        <v>1.042824811635418</v>
+        <v>0.9890825708275445</v>
       </c>
       <c r="M23">
-        <v>1.045709830968701</v>
+        <v>0.9892882132054698</v>
       </c>
       <c r="N23">
-        <v>1.010874297443649</v>
+        <v>1.003816324128582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014642512756412</v>
+        <v>0.9744381985157535</v>
       </c>
       <c r="D24">
-        <v>1.021245933145648</v>
+        <v>0.9988502052649978</v>
       </c>
       <c r="E24">
-        <v>1.041032393134648</v>
+        <v>0.982505867159277</v>
       </c>
       <c r="F24">
-        <v>1.044027740227249</v>
+        <v>0.9832570802315599</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026580792725164</v>
+        <v>1.037389900906843</v>
       </c>
       <c r="J24">
-        <v>1.020979239755943</v>
+        <v>1.002957019941092</v>
       </c>
       <c r="K24">
-        <v>1.024668301938886</v>
+        <v>1.01289754271916</v>
       </c>
       <c r="L24">
-        <v>1.044384986643367</v>
+        <v>0.9968473259748242</v>
       </c>
       <c r="M24">
-        <v>1.047370024550225</v>
+        <v>0.9975847415061164</v>
       </c>
       <c r="N24">
-        <v>1.011123474125256</v>
+        <v>1.005170811416841</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016141008876762</v>
+        <v>0.9823734224091073</v>
       </c>
       <c r="D25">
-        <v>1.022351896542661</v>
+        <v>1.004719966153936</v>
       </c>
       <c r="E25">
-        <v>1.043166293554335</v>
+        <v>0.9927344361383699</v>
       </c>
       <c r="F25">
-        <v>1.046276654696619</v>
+        <v>0.9940805754916608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026813553893807</v>
+        <v>1.039575848400713</v>
       </c>
       <c r="J25">
-        <v>1.021854822346624</v>
+        <v>1.007508909079493</v>
       </c>
       <c r="K25">
-        <v>1.025447297955395</v>
+        <v>1.017245449948307</v>
       </c>
       <c r="L25">
-        <v>1.046195851211313</v>
+        <v>1.005446597525513</v>
       </c>
       <c r="M25">
-        <v>1.049296618785497</v>
+        <v>1.006771483222091</v>
       </c>
       <c r="N25">
-        <v>1.011411201603874</v>
+        <v>1.006666444758571</v>
       </c>
     </row>
   </sheetData>
